--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.05</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.81</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -632,15 +682,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.23</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,25 +748,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1159,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,167 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>2</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0504</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0321</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -624,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -675,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501030</t>
+          <t>233009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
+          <t>大摩多因子精选策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>93.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.1058</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -713,74 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>009246</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1057</t>
+          <t>0.0461</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0818</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,7 +877,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1015,36 +907,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>233009</t>
+          <t>501030</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大摩多因子精选策略混合</t>
+          <t>汇添富中证环境治理指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>10.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1058</t>
+          <t>0.2292</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1053,36 +945,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009246</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫ESG量化先行混合</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0461</t>
+          <t>0.1057</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1096,96 +1026,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -549,6 +566,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -673,176 +898,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -917,26 +972,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -945,36 +1000,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1057</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -983,36 +1038,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1021,6 +1076,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
+++ b/数据整理/stocks/A股/上证主板/601388-怡球资源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -566,6 +583,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -773,7 +920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -898,176 +1045,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2506</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164908</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1142,26 +1119,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.28</t>
+          <t>10.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2292</t>
+          <t>0.2506</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1170,36 +1147,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164908</t>
+          <t>501031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德中证环境治理指数（LOF）</t>
+          <t>汇添富中证环境治理指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1057</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1208,36 +1185,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501031</t>
+          <t>164908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证环境治理指数（LOF）C</t>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.03</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0818</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1246,6 +1223,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164908</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证环境治理指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证环境治理指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
